--- a/src/test/resources/testData/VtigerCRMTestData.xlsx
+++ b/src/test/resources/testData/VtigerCRMTestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VtigerCRM_WCSA3\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CucumberFrameworkWCSA3\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FCF742-AD03-4AFF-8B53-169EADF98104}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A11049-26FD-47F3-A680-573A3E40FBC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{A6492B4B-4497-484C-9067-5A512381FFD5}"/>
   </bookViews>
@@ -16,8 +16,9 @@
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -124,7 +125,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,17 +602,17 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.109375"/>
-    <col min="2" max="2" customWidth="true" style="1" width="37.88671875"/>
-    <col min="3" max="3" customWidth="true" style="1" width="29.21875"/>
-    <col min="4" max="4" customWidth="true" style="1" width="28.33203125"/>
-    <col min="5" max="5" customWidth="true" style="1" width="16.88671875"/>
-    <col min="6" max="16384" style="1" width="8.88671875"/>
+    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
